--- a/Documentation/4.Pruebas.xlsx
+++ b/Documentation/4.Pruebas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\RecruitMutants\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582636BD-31B6-488D-BC9F-389CD509E3EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FC1DA-58A9-46BE-BE31-8C1B9791763A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{0D35CD3A-F477-4793-A240-7E1B45899A4C}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <t>"ATAAGA","CAGAGC","CAGGGC"</t>
   </si>
   <si>
-    <t>200
-No Ingresa a la  BD</t>
-  </si>
-  <si>
     <t>"ATGCGA","CAGTGC","TTATGT","AGAAGG","CCCCTA","TCACTG"</t>
   </si>
   <si>
@@ -78,6 +74,10 @@
   </si>
   <si>
     <t>"ATGA","CAGTGC","TTATGT"</t>
+  </si>
+  <si>
+    <t>403
+No Ingresa a la  BD</t>
   </si>
 </sst>
 </file>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240873AD-0F87-48E7-9F96-7416399BDEF1}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
     </row>
     <row r="4" spans="1:4" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="5" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="6" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -988,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="8" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
